--- a/sequences/32_pairings.xlsx
+++ b/sequences/32_pairings.xlsx
@@ -25,784 +25,784 @@
     <t>category</t>
   </si>
   <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
     <t>face/face008.jpg</t>
   </si>
   <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
     <t>flower/flower000.jpg</t>
   </si>
   <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
   </si>
   <si>
     <t>house/house017.jpg</t>
   </si>
   <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
   </si>
   <si>
     <t>house/house003.jpg</t>
   </si>
   <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
     <t>dog/dog027.jpg</t>
   </si>
   <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>kehren</t>
   </si>
   <si>
     <t>seufzen</t>
   </si>
   <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
     <t>leuchten</t>
   </si>
   <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>ehren</t>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>treten</t>
   </si>
   <si>
     <t>jubeln</t>
   </si>
   <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>buchen</t>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
   </si>
   <si>
     <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
         <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1284,7 +1284,7 @@
         <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2153,7 +2153,7 @@
         <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2285,7 +2285,7 @@
         <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2351,7 +2351,7 @@
         <v>237</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2362,7 +2362,7 @@
         <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2417,7 +2417,7 @@
         <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:3">

--- a/sequences/32_pairings.xlsx
+++ b/sequences/32_pairings.xlsx
@@ -25,784 +25,784 @@
     <t>category</t>
   </si>
   <si>
+    <t>dog/dog027.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
     <t>flower/flower031.jpg</t>
   </si>
   <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
   </si>
   <si>
     <t>face/face007.jpg</t>
   </si>
   <si>
-    <t>face/face001.jpg</t>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
   </si>
   <si>
     <t>dog/dog021.jpg</t>
   </si>
   <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
     <t>house/house014.jpg</t>
   </si>
   <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>face/face026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
   </si>
   <si>
     <t>face/face021.jpg</t>
   </si>
   <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
+    <t>dog/dog014.jpg</t>
   </si>
   <si>
     <t>face/face008.jpg</t>
   </si>
   <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>face/face026.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog027.jpg</t>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>brauchen</t>
   </si>
   <si>
     <t>schützen</t>
   </si>
   <si>
-    <t>zahlen</t>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>schweben</t>
   </si>
   <si>
     <t>stopfen</t>
   </si>
   <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>steuern</t>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>fügen</t>
   </si>
   <si>
     <t>kommen</t>
   </si>
   <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
     <t>schultern</t>
   </si>
   <si>
-    <t>treiben</t>
-  </si>
-  <si>
     <t>planen</t>
   </si>
   <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>jubeln</t>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
         <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1262,7 +1262,7 @@
         <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1284,7 +1284,7 @@
         <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2351,7 +2351,7 @@
         <v>237</v>
       </c>
       <c r="C108" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2417,7 +2417,7 @@
         <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/32_pairings.xlsx
+++ b/sequences/32_pairings.xlsx
@@ -25,781 +25,781 @@
     <t>category</t>
   </si>
   <si>
+    <t>house/house000.jpg</t>
+  </si>
+  <si>
+    <t>house/house021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog025.jpg</t>
+  </si>
+  <si>
+    <t>face/face028.jpg</t>
+  </si>
+  <si>
+    <t>face/face004.jpg</t>
+  </si>
+  <si>
+    <t>face/face024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower005.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog002.jpg</t>
+  </si>
+  <si>
+    <t>face/face005.jpg</t>
+  </si>
+  <si>
+    <t>face/face023.jpg</t>
+  </si>
+  <si>
+    <t>house/house017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog030.jpg</t>
+  </si>
+  <si>
+    <t>face/face018.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog014.jpg</t>
+  </si>
+  <si>
+    <t>face/face027.jpg</t>
+  </si>
+  <si>
+    <t>face/face016.jpg</t>
+  </si>
+  <si>
+    <t>house/house016.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog028.jpg</t>
+  </si>
+  <si>
+    <t>house/house011.jpg</t>
+  </si>
+  <si>
+    <t>house/house025.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog001.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog012.jpg</t>
+  </si>
+  <si>
+    <t>house/house019.jpg</t>
+  </si>
+  <si>
+    <t>face/face020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower021.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog000.jpg</t>
+  </si>
+  <si>
+    <t>face/face001.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower017.jpg</t>
+  </si>
+  <si>
+    <t>face/face030.jpg</t>
+  </si>
+  <si>
+    <t>face/face002.jpg</t>
+  </si>
+  <si>
+    <t>face/face021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower015.jpg</t>
+  </si>
+  <si>
+    <t>house/house006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog009.jpg</t>
+  </si>
+  <si>
+    <t>face/face025.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower014.jpg</t>
+  </si>
+  <si>
+    <t>face/face029.jpg</t>
+  </si>
+  <si>
+    <t>face/face011.jpg</t>
+  </si>
+  <si>
+    <t>face/face003.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog011.jpg</t>
+  </si>
+  <si>
+    <t>house/house008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower018.jpg</t>
+  </si>
+  <si>
+    <t>face/face008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower002.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower030.jpg</t>
+  </si>
+  <si>
+    <t>house/house020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower006.jpg</t>
+  </si>
+  <si>
+    <t>house/house012.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog004.jpg</t>
+  </si>
+  <si>
+    <t>face/face010.jpg</t>
+  </si>
+  <si>
+    <t>house/house013.jpg</t>
+  </si>
+  <si>
+    <t>face/face009.jpg</t>
+  </si>
+  <si>
+    <t>house/house007.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower004.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower003.jpg</t>
+  </si>
+  <si>
+    <t>face/face000.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog010.jpg</t>
+  </si>
+  <si>
+    <t>face/face006.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog031.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog006.jpg</t>
+  </si>
+  <si>
+    <t>house/house029.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower027.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog024.jpg</t>
+  </si>
+  <si>
+    <t>face/face013.jpg</t>
+  </si>
+  <si>
+    <t>house/house030.jpg</t>
+  </si>
+  <si>
+    <t>house/house004.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower013.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower028.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog019.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower000.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower012.jpg</t>
+  </si>
+  <si>
+    <t>face/face022.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog007.jpg</t>
+  </si>
+  <si>
+    <t>house/house002.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower019.jpg</t>
+  </si>
+  <si>
+    <t>house/house003.jpg</t>
+  </si>
+  <si>
+    <t>house/house001.jpg</t>
+  </si>
+  <si>
+    <t>house/house024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower001.jpg</t>
+  </si>
+  <si>
+    <t>house/house026.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower007.jpg</t>
+  </si>
+  <si>
+    <t>face/face017.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog021.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog017.jpg</t>
+  </si>
+  <si>
+    <t>house/house027.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower020.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog018.jpg</t>
+  </si>
+  <si>
+    <t>house/house005.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower026.jpg</t>
+  </si>
+  <si>
+    <t>face/face015.jpg</t>
+  </si>
+  <si>
+    <t>house/house010.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog015.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog008.jpg</t>
+  </si>
+  <si>
+    <t>face/face012.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower011.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog029.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog020.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face007.jpg</t>
+  </si>
+  <si>
+    <t>house/house028.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower008.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower025.jpg</t>
+  </si>
+  <si>
+    <t>house/house018.jpg</t>
+  </si>
+  <si>
+    <t>house/house015.jpg</t>
+  </si>
+  <si>
+    <t>house/house031.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower022.jpg</t>
+  </si>
+  <si>
+    <t>face/face031.jpg</t>
+  </si>
+  <si>
+    <t>house/house022.jpg</t>
+  </si>
+  <si>
+    <t>house/house014.jpg</t>
+  </si>
+  <si>
+    <t>face/face019.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog016.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower024.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower010.jpg</t>
+  </si>
+  <si>
+    <t>face/face014.jpg</t>
+  </si>
+  <si>
+    <t>house/house009.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog003.jpg</t>
+  </si>
+  <si>
+    <t>house/house023.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog026.jpg</t>
+  </si>
+  <si>
     <t>dog/dog027.jpg</t>
   </si>
   <si>
-    <t>face/face017.jpg</t>
-  </si>
-  <si>
-    <t>house/house002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower025.jpg</t>
-  </si>
-  <si>
-    <t>face/face000.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog019.jpg</t>
-  </si>
-  <si>
-    <t>face/face012.jpg</t>
-  </si>
-  <si>
-    <t>face/face027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog024.jpg</t>
-  </si>
-  <si>
-    <t>house/house003.jpg</t>
-  </si>
-  <si>
-    <t>face/face009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog016.jpg</t>
-  </si>
-  <si>
-    <t>face/face003.jpg</t>
-  </si>
-  <si>
-    <t>face/face016.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog015.jpg</t>
-  </si>
-  <si>
-    <t>face/face002.jpg</t>
-  </si>
-  <si>
-    <t>face/face031.jpg</t>
-  </si>
-  <si>
-    <t>face/face006.jpg</t>
-  </si>
-  <si>
-    <t>house/house024.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog013.jpg</t>
-  </si>
-  <si>
-    <t>house/house018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower017.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower021.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower010.jpg</t>
-  </si>
-  <si>
-    <t>house/house000.jpg</t>
-  </si>
-  <si>
-    <t>face/face029.jpg</t>
-  </si>
-  <si>
-    <t>house/house020.jpg</t>
-  </si>
-  <si>
-    <t>face/face024.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower022.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog000.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower020.jpg</t>
-  </si>
-  <si>
-    <t>house/house015.jpg</t>
-  </si>
-  <si>
-    <t>face/face022.jpg</t>
-  </si>
-  <si>
-    <t>face/face015.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower028.jpg</t>
-  </si>
-  <si>
-    <t>face/face004.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog026.jpg</t>
-  </si>
-  <si>
-    <t>face/face010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog003.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower015.jpg</t>
-  </si>
-  <si>
-    <t>house/house030.jpg</t>
-  </si>
-  <si>
-    <t>face/face014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog006.jpg</t>
-  </si>
-  <si>
-    <t>house/house017.jpg</t>
-  </si>
-  <si>
-    <t>face/face020.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower000.jpg</t>
-  </si>
-  <si>
-    <t>house/house012.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog018.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower026.jpg</t>
-  </si>
-  <si>
-    <t>face/face028.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog017.jpg</t>
-  </si>
-  <si>
-    <t>house/house027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog010.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog029.jpg</t>
-  </si>
-  <si>
-    <t>house/house008.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower019.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower002.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog020.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog007.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower023.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower030.jpg</t>
-  </si>
-  <si>
-    <t>house/house007.jpg</t>
-  </si>
-  <si>
-    <t>house/house010.jpg</t>
-  </si>
-  <si>
-    <t>face/face001.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog028.jpg</t>
-  </si>
-  <si>
-    <t>house/house013.jpg</t>
-  </si>
-  <si>
-    <t>house/house016.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower012.jpg</t>
-  </si>
-  <si>
-    <t>house/house026.jpg</t>
-  </si>
-  <si>
-    <t>house/house004.jpg</t>
-  </si>
-  <si>
-    <t>house/house025.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog005.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower029.jpg</t>
-  </si>
-  <si>
-    <t>face/face018.jpg</t>
-  </si>
-  <si>
-    <t>house/house029.jpg</t>
-  </si>
-  <si>
-    <t>house/house028.jpg</t>
-  </si>
-  <si>
-    <t>house/house001.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower027.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog023.jpg</t>
-  </si>
-  <si>
-    <t>face/face030.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog002.jpg</t>
-  </si>
-  <si>
-    <t>face/face007.jpg</t>
-  </si>
-  <si>
-    <t>house/house006.jpg</t>
-  </si>
-  <si>
-    <t>house/house031.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog012.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog009.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower004.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower006.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower003.jpg</t>
-  </si>
-  <si>
-    <t>face/face013.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog022.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower008.jpg</t>
-  </si>
-  <si>
-    <t>house/house022.jpg</t>
-  </si>
-  <si>
-    <t>house/house009.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog031.jpg</t>
-  </si>
-  <si>
-    <t>face/face023.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog008.jpg</t>
-  </si>
-  <si>
-    <t>face/face011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower018.jpg</t>
-  </si>
-  <si>
-    <t>house/house019.jpg</t>
-  </si>
-  <si>
-    <t>face/face005.jpg</t>
-  </si>
-  <si>
-    <t>house/house011.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower024.jpg</t>
-  </si>
-  <si>
-    <t>house/house005.jpg</t>
-  </si>
-  <si>
-    <t>face/face025.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower011.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog021.jpg</t>
-  </si>
-  <si>
-    <t>house/house014.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog030.jpg</t>
-  </si>
-  <si>
     <t>face/face026.jpg</t>
   </si>
   <si>
-    <t>flower/flower007.jpg</t>
-  </si>
-  <si>
-    <t>face/face019.jpg</t>
-  </si>
-  <si>
-    <t>house/house023.jpg</t>
-  </si>
-  <si>
-    <t>face/face021.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog014.jpg</t>
-  </si>
-  <si>
-    <t>face/face008.jpg</t>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>leiten</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>stopfen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>schweben</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>antun</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>sehen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>kleben</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>packen</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>leuchten</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>decken</t>
   </si>
   <si>
     <t>tragen</t>
   </si>
   <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>faulen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
     <t>leugnen</t>
   </si>
   <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>buchen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>seufzen</t>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>triefen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>sammeln</t>
   </si>
   <si>
     <t>stärken</t>
   </si>
   <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
     <t>spielen</t>
   </si>
   <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>retten</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>geben</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>fordern</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>zahlen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>nerven</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>streichen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>schreiben</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>treten</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>leuchten</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>schneiden</t>
-  </si>
-  <si>
-    <t>schwimmen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>sehen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>brauchen</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>bieten</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>packen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>kleben</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>segnen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>dringen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>schweben</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>stürmen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>planen</t>
+    <t>house</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
     <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
   </si>
   <si>
     <t>flower</t>
@@ -1196,7 +1196,7 @@
         <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1273,7 +1273,7 @@
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1284,7 +1284,7 @@
         <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1328,7 +1328,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1647,7 +1647,7 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>176</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1768,7 +1768,7 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2054,7 +2054,7 @@
         <v>210</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2065,7 +2065,7 @@
         <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2120,7 +2120,7 @@
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2142,7 +2142,7 @@
         <v>218</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2153,7 +2153,7 @@
         <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2186,7 +2186,7 @@
         <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2197,7 +2197,7 @@
         <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2230,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2351,7 +2351,7 @@
         <v>237</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>242</v>
       </c>
       <c r="C113" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2417,7 +2417,7 @@
         <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2494,7 +2494,7 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2571,7 +2571,7 @@
         <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2582,7 +2582,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
